--- a/RFvalue.xlsx
+++ b/RFvalue.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MDBASKETBALL\OneDrive\Máy tính\code_cong_ty\HuynhMinhDang08022001_dang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\code_cong_ty\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21480" windowHeight="4710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RFvalue_baseSW" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="73">
   <si>
     <t>DID</t>
   </si>
@@ -29,6 +29,9 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Length (Byte)</t>
+  </si>
+  <si>
     <t>ASCII Value</t>
   </si>
   <si>
@@ -92,7 +95,121 @@
     <t>*PAC-Programing_Attempt_Counter</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>F194</t>
+  </si>
+  <si>
+    <t>Supplier Software number</t>
+  </si>
+  <si>
+    <t>F189</t>
+  </si>
+  <si>
+    <t>ECUSoftwareVersionNumberDataIdentifier</t>
+  </si>
+  <si>
+    <t>F089</t>
+  </si>
+  <si>
+    <t>ECUHardwareVersionNumberDataIdentifier</t>
+  </si>
+  <si>
+    <t>F187</t>
+  </si>
+  <si>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>F188</t>
+  </si>
+  <si>
+    <t>Software Number</t>
+  </si>
+  <si>
+    <t>F170</t>
+  </si>
+  <si>
+    <t>FBL Version Information</t>
+  </si>
+  <si>
+    <t>F1F4</t>
+  </si>
+  <si>
+    <t>vehicle configuration</t>
+  </si>
+  <si>
+    <t>F1F0</t>
+  </si>
+  <si>
+    <t>F1DE</t>
+  </si>
+  <si>
+    <t>S311 BL01_RC03</t>
+  </si>
+  <si>
+    <t>APPL</t>
+  </si>
+  <si>
+    <t>SWC.6.0</t>
+  </si>
+  <si>
+    <t>HWC.2.0</t>
+  </si>
+  <si>
+    <t>7917030-CD03</t>
+  </si>
+  <si>
+    <t>9212401-CD03</t>
+  </si>
+  <si>
+    <t>V9.3</t>
+  </si>
+  <si>
+    <t>FBL</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>RBEOL</t>
+  </si>
+  <si>
+    <t>CA_S311_BL01_RC03</t>
+  </si>
+  <si>
+    <t>CA_S311</t>
+  </si>
+  <si>
+    <t>f1f004</t>
+  </si>
+  <si>
+    <t>f1f0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>S311 BL01_RC05</t>
+  </si>
+  <si>
+    <t>SWC.7.1</t>
+  </si>
+  <si>
+    <t>5357432E362E31</t>
+  </si>
+  <si>
+    <t>V9.5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>CA_S311_BL01_RC05</t>
+  </si>
+  <si>
+    <t>BL01_RC05</t>
+  </si>
+  <si>
+    <t>f1f010</t>
   </si>
   <si>
     <t>abc</t>
@@ -104,121 +221,25 @@
     <t>0201</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>F194</t>
-  </si>
-  <si>
-    <t>Supplier Software number</t>
-  </si>
-  <si>
-    <t>S311 BL01_RC05</t>
-  </si>
-  <si>
-    <t>APPL</t>
-  </si>
-  <si>
-    <t>F189</t>
-  </si>
-  <si>
-    <t>ECUSoftwareVersionNumberDataIdentifier</t>
-  </si>
-  <si>
-    <t>SWC.7.1</t>
-  </si>
-  <si>
-    <t>5357432E362E31</t>
-  </si>
-  <si>
-    <t>F089</t>
-  </si>
-  <si>
-    <t>ECUHardwareVersionNumberDataIdentifier</t>
-  </si>
-  <si>
-    <t>HWC.2.0</t>
-  </si>
-  <si>
-    <t>F187</t>
-  </si>
-  <si>
-    <t>Part Number</t>
-  </si>
-  <si>
-    <t>7917030-CD03</t>
-  </si>
-  <si>
-    <t>F188</t>
-  </si>
-  <si>
-    <t>Software Number</t>
-  </si>
-  <si>
-    <t>9212401-CD03</t>
-  </si>
-  <si>
-    <t>F170</t>
-  </si>
-  <si>
-    <t>FBL Version Information</t>
-  </si>
-  <si>
-    <t>V9.5</t>
-  </si>
-  <si>
-    <t>FBL</t>
-  </si>
-  <si>
-    <t>F1F4</t>
-  </si>
-  <si>
-    <t>vehicle configuration</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>CA_S311_BL01_RC05</t>
-  </si>
-  <si>
-    <t>BL01_RC05</t>
-  </si>
-  <si>
-    <t>f1f010</t>
-  </si>
-  <si>
-    <t>f1f0</t>
-  </si>
-  <si>
-    <t>S311 BL01_RC03</t>
-  </si>
-  <si>
-    <t>SWC.6.0</t>
-  </si>
-  <si>
-    <t>V9.3</t>
-  </si>
-  <si>
-    <t>F1F0</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>CA_S311_BL01_RC03</t>
-  </si>
-  <si>
-    <t>CA_S311</t>
-  </si>
-  <si>
-    <t>f1f004</t>
-  </si>
-  <si>
-    <t>F1DE</t>
-  </si>
-  <si>
-    <t>RBEOL</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>393231323430312D43443033</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
 </sst>
 </file>
@@ -602,25 +623,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
     <col min="2" max="2" width="50" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="5" width="30" style="1" customWidth="1"/>
-    <col min="6" max="7" width="40" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35" customWidth="1"/>
+    <col min="3" max="4" width="20" style="1" customWidth="1"/>
+    <col min="5" max="6" width="30" style="1" customWidth="1"/>
+    <col min="7" max="8" width="40" style="1" customWidth="1"/>
+    <col min="9" max="9" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -637,157 +658,242 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>65</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E10">
+  <dataValidations count="20">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F10">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F11">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F12">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F13">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F14">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F15">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F16">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F17">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F18">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F19">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F20">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F21">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F22">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F23">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F24">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F25">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F26">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F27">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F28">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F29">
       <formula1>"APPL, FBL, RBEOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -797,25 +903,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
     <col min="2" max="2" width="50" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50" style="1" customWidth="1"/>
-    <col min="7" max="8" width="40" style="1" customWidth="1"/>
-    <col min="9" max="9" width="35" customWidth="1"/>
+    <col min="3" max="4" width="20" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="1" customWidth="1"/>
+    <col min="7" max="7" width="50" style="1" customWidth="1"/>
+    <col min="8" max="9" width="40" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -832,154 +938,239 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>65</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E9">
+  <dataValidations count="21">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F10">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F11">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F12">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F13">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F14">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F15">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F16">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F17">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F18">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F19">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F20">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F21">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F22">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F23">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F24">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F25">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F26">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F27">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F28">
+      <formula1>"APPL, FBL, RBEOL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F29">
       <formula1>"APPL, FBL, RBEOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -992,7 +1183,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,48 +1193,48 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
